--- a/FCM/Resource/TemplaceTeam.xlsx
+++ b/FCM/Resource/TemplaceTeam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuduc\Documents\GitHub\WPF-FC-Management\FCM\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A2AEE-8280-47D3-ABF5-D4982186E96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFA3EA-C3D6-4C7C-A904-0047FA5D7425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A272F6B6-A1F7-4FA8-8DBE-8480DDB71D0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A272F6B6-A1F7-4FA8-8DBE-8480DDB71D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Thông tin đội bóng</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Hậu</t>
+  </si>
+  <si>
+    <t>Hậu vệ</t>
   </si>
 </sst>
 </file>
@@ -365,39 +371,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,19 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +492,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>794657</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -509,7 +518,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2762250" y="2952750"/>
+          <a:off x="2852057" y="2936421"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -519,6 +528,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>805544</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1338943</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>622314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29EE69F-7F6D-4DD2-9A55-0A247DB78542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2862944" y="3690257"/>
+          <a:ext cx="533399" cy="535228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -821,13 +880,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29776AD3-15DA-452F-966C-97872CF5E930}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -837,11 +896,11 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
@@ -849,13 +908,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
@@ -865,12 +924,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
+      <c r="B4" s="4">
+        <v>2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -879,11 +938,11 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
@@ -893,11 +952,11 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1"/>
@@ -907,11 +966,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
@@ -921,11 +980,11 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>137</v>
       </c>
       <c r="C8" s="1"/>
@@ -935,7 +994,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -945,7 +1004,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -955,269 +1014,281 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
         <v>1</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="20">
+        <v>36192</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1230,6 +1301,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x0101002270AFD8898FE84B8C0DEF4AF569EE5F" ma:contentTypeVersion="5" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d259eaac46f8213591421ee06b8de563">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a069508f-c851-4346-9bc8-e3754af750ae" xmlns:ns4="32a3f031-5e38-462b-b0c0-9200614458f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8988460f076a2dfe7a3984cf11f15eab" ns3:_="" ns4:_="">
     <xsd:import namespace="a069508f-c851-4346-9bc8-e3754af750ae"/>
@@ -1400,15 +1480,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1416,6 +1487,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D119B9-FB46-43C5-A3C0-69C66642379B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7A484C-ED09-4161-9B75-CD9A04B20E40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1430,14 +1509,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D119B9-FB46-43C5-A3C0-69C66642379B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FCM/Resource/TemplaceTeam.xlsx
+++ b/FCM/Resource/TemplaceTeam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuduc\Documents\GitHub\WPF-FC-Management\FCM\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Clone\WPF-FC-Management\FCM\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFA3EA-C3D6-4C7C-A904-0047FA5D7425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56427E60-12BB-457F-B06B-4BA17F1EE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A272F6B6-A1F7-4FA8-8DBE-8480DDB71D0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A272F6B6-A1F7-4FA8-8DBE-8480DDB71D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,7 +428,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,13 +889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29776AD3-15DA-452F-966C-97872CF5E930}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -896,7 +905,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -910,7 +919,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -924,7 +933,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,7 +947,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,7 +961,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -966,7 +975,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -980,7 +989,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -994,7 +1003,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1004,7 +1013,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1014,7 +1023,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -1066,51 +1075,51 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
         <v>1</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="13">
         <v>3</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="23">
         <v>36192</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1120,7 +1129,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1130,7 +1139,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1140,7 +1149,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1150,7 +1159,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1160,7 +1169,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1170,7 +1179,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1180,7 +1189,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1190,7 +1199,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1200,7 +1209,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1210,7 +1219,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1220,7 +1229,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1230,7 +1239,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1240,7 +1249,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1250,7 +1259,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1260,7 +1269,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1270,7 +1279,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1280,7 +1289,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1301,15 +1310,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x0101002270AFD8898FE84B8C0DEF4AF569EE5F" ma:contentTypeVersion="5" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d259eaac46f8213591421ee06b8de563">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a069508f-c851-4346-9bc8-e3754af750ae" xmlns:ns4="32a3f031-5e38-462b-b0c0-9200614458f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8988460f076a2dfe7a3984cf11f15eab" ns3:_="" ns4:_="">
     <xsd:import namespace="a069508f-c851-4346-9bc8-e3754af750ae"/>
@@ -1480,6 +1480,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1487,14 +1496,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D119B9-FB46-43C5-A3C0-69C66642379B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7A484C-ED09-4161-9B75-CD9A04B20E40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1509,6 +1510,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D119B9-FB46-43C5-A3C0-69C66642379B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FCM/Resource/TemplaceTeam.xlsx
+++ b/FCM/Resource/TemplaceTeam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Clone\WPF-FC-Management\FCM\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56427E60-12BB-457F-B06B-4BA17F1EE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C1CB4A-6349-4E7A-A249-9829F2918F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A272F6B6-A1F7-4FA8-8DBE-8480DDB71D0A}"/>
   </bookViews>
@@ -413,6 +413,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,18 +438,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +552,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="5" name="Đoàn Văn Hậu">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29EE69F-7F6D-4DD2-9A55-0A247DB78542}"/>
@@ -890,7 +890,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,10 +906,10 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
@@ -1024,28 +1024,28 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1076,26 +1076,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -1111,7 +1111,7 @@
       <c r="E14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="18">
         <v>36192</v>
       </c>
       <c r="G14" s="13" t="s">
